--- a/upload/excel/Data_Siswa.xlsx
+++ b/upload/excel/Data_Siswa.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,11 +423,11 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D7" si="0">IF(C3&gt;60,"Diterima","Tidak Diterima")</f>
-        <v>Diterima</v>
+        <v>Tidak Diterima</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,11 +468,11 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>Diterima</v>
+        <v>Tidak Diterima</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
